--- a/Acetone/Acetone_Ave_SOOT_Mass_FRAC.xlsx
+++ b/Acetone/Acetone_Ave_SOOT_Mass_FRAC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Acetone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4889F04-9C2F-4CC4-BDD1-E651605ACC69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6F70B5E4-22A5-4461-8323-35651A8578A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="11055" xr2:uid="{182C5018-236B-4C10-B8E7-09E0511DA584}"/>
+    <workbookView xWindow="25200" yWindow="-945" windowWidth="16200" windowHeight="10995" xr2:uid="{182C5018-236B-4C10-B8E7-09E0511DA584}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07AD7F4-242F-482D-9516-971108F32CC2}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,10 +457,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.6528022450646957E-4</v>
+        <v>6.0688114158268468E-4</v>
       </c>
       <c r="C2">
-        <v>1.4821872093528022E-5</v>
+        <v>2.5223517886497623E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,10 +468,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.3937065295494521E-4</v>
+        <v>1.3216334408640931E-3</v>
       </c>
       <c r="C3">
-        <v>2.8962459490505354E-4</v>
+        <v>3.732946329500868E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,10 +479,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.0403569827979284E-3</v>
+        <v>2.602978255829164E-3</v>
       </c>
       <c r="C4">
-        <v>7.9435861828233061E-5</v>
+        <v>3.7846780351980739E-4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,10 +490,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.3347755453614568E-3</v>
+        <v>4.3114571161967947E-3</v>
       </c>
       <c r="C5">
-        <v>6.8587613385216614E-5</v>
+        <v>7.1578101926630532E-4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.3957587341662063E-3</v>
+        <v>5.4106373990974637E-3</v>
       </c>
       <c r="C6">
-        <v>5.3561238416670722E-5</v>
+        <v>8.8160998382588122E-4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,10 +512,10 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>1.1402221192398716E-3</v>
+        <v>4.7125094180459574E-3</v>
       </c>
       <c r="C7">
-        <v>4.0016422727251008E-5</v>
+        <v>4.0587861706539393E-4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -523,10 +523,10 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>9.4558349928821435E-4</v>
+        <v>3.9183911479763285E-3</v>
       </c>
       <c r="C8">
-        <v>4.1300003580276173E-5</v>
+        <v>5.7185927975589215E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,10 +534,10 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>3.745553362714471E-4</v>
+        <v>1.3896744945217014E-3</v>
       </c>
       <c r="C9">
-        <v>5.5592372236095103E-5</v>
+        <v>7.6917827413544685E-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -545,21 +545,32 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>1.1743408933365021E-4</v>
+        <v>3.6696785140685002E-4</v>
       </c>
       <c r="C10">
-        <v>4.3615910695519825E-5</v>
+        <v>5.5573732029649379E-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>1.8825037229607027E-4</v>
+      </c>
+      <c r="C11">
+        <v>2.9073161862689265E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>100</v>
       </c>
-      <c r="B11">
-        <v>1.2500387622552602E-5</v>
-      </c>
-      <c r="C11">
-        <v>1.3312392218280024E-5</v>
+      <c r="B12">
+        <v>2.4937100772462781E-5</v>
+      </c>
+      <c r="C12">
+        <v>1.3431336552007716E-5</v>
       </c>
     </row>
   </sheetData>
